--- a/data_quarter/zb/建筑业/建筑业企业房屋建筑施工面积.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业房屋建筑施工面积.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,31 @@
           <t>新开工面积_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>实行投标承包新开工面积</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>实行投标承包面积</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>房屋建筑施工面积</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>新开工面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -469,11 +489,19 @@
       <c r="E2" t="n">
         <v>61193.27</v>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>155966.93</v>
+      </c>
+      <c r="I2" t="n">
+        <v>61193.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -484,11 +512,19 @@
       <c r="E3" t="n">
         <v>149203.81</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>107500.51</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88010.54000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -503,49 +539,85 @@
       <c r="E4" t="n">
         <v>30494.27</v>
       </c>
+      <c r="F4" t="n">
+        <v>24447.67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>96405</v>
+      </c>
+      <c r="H4" t="n">
+        <v>125314.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30494.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85594.59</v>
+        <v>57750.44</v>
       </c>
       <c r="C5" t="n">
-        <v>179113.51</v>
+        <v>144554.5</v>
       </c>
       <c r="D5" t="n">
-        <v>227176.32</v>
+        <v>184777.5</v>
       </c>
       <c r="E5" t="n">
-        <v>104547.1</v>
+        <v>70888.25999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33302.77</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48149.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>59462.53</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40393.98999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57750.44</v>
+        <v>85594.59</v>
       </c>
       <c r="C6" t="n">
-        <v>144554.5</v>
+        <v>179113.51</v>
       </c>
       <c r="D6" t="n">
-        <v>184777.5</v>
+        <v>227176.32</v>
       </c>
       <c r="E6" t="n">
-        <v>70888.25999999999</v>
+        <v>104547.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>27844.14999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>34559.01000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>42398.82000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33658.84000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -560,11 +632,23 @@
       <c r="E7" t="n">
         <v>166026.16</v>
       </c>
+      <c r="F7" t="n">
+        <v>48774.48000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>55123.13999999998</v>
+      </c>
+      <c r="H7" t="n">
+        <v>64762.20000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>61479.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -579,49 +663,85 @@
       <c r="E8" t="n">
         <v>34655</v>
       </c>
+      <c r="F8" t="n">
+        <v>27749.76</v>
+      </c>
+      <c r="G8" t="n">
+        <v>117226.86</v>
+      </c>
+      <c r="H8" t="n">
+        <v>149960.43</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34655</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104177.81</v>
+        <v>68375.23</v>
       </c>
       <c r="C9" t="n">
-        <v>222529.33</v>
+        <v>177099.97</v>
       </c>
       <c r="D9" t="n">
-        <v>275469.47</v>
+        <v>219912.29</v>
       </c>
       <c r="E9" t="n">
-        <v>124710.86</v>
+        <v>82006.53999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>40625.47</v>
+      </c>
+      <c r="G9" t="n">
+        <v>59873.11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>69951.86000000002</v>
+      </c>
+      <c r="I9" t="n">
+        <v>47351.53999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68375.23</v>
+        <v>104177.81</v>
       </c>
       <c r="C10" t="n">
-        <v>177099.97</v>
+        <v>222529.33</v>
       </c>
       <c r="D10" t="n">
-        <v>219912.29</v>
+        <v>275469.47</v>
       </c>
       <c r="E10" t="n">
-        <v>82006.53999999999</v>
+        <v>124710.86</v>
+      </c>
+      <c r="F10" t="n">
+        <v>35802.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>45429.35999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>55557.17999999996</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42704.32000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -636,11 +756,23 @@
       <c r="E11" t="n">
         <v>189405.55</v>
       </c>
+      <c r="F11" t="n">
+        <v>51654.44</v>
+      </c>
+      <c r="G11" t="n">
+        <v>58573.20999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>73499.64000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>64694.68999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -655,49 +787,85 @@
       <c r="E12" t="n">
         <v>44199.68</v>
       </c>
+      <c r="F12" t="n">
+        <v>34896.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>144150.27</v>
+      </c>
+      <c r="H12" t="n">
+        <v>179333.68</v>
+      </c>
+      <c r="I12" t="n">
+        <v>44199.68</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121908.94</v>
+        <v>81341.14</v>
       </c>
       <c r="C13" t="n">
-        <v>259339.05</v>
+        <v>213167.6</v>
       </c>
       <c r="D13" t="n">
-        <v>319695.87</v>
+        <v>263276.86</v>
       </c>
       <c r="E13" t="n">
-        <v>146877.78</v>
+        <v>97761.57000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>46444.44</v>
+      </c>
+      <c r="G13" t="n">
+        <v>69017.33000000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>83943.17999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>53561.89000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81341.14</v>
+        <v>121908.94</v>
       </c>
       <c r="C14" t="n">
-        <v>213167.6</v>
+        <v>259339.05</v>
       </c>
       <c r="D14" t="n">
-        <v>263276.86</v>
+        <v>319695.87</v>
       </c>
       <c r="E14" t="n">
-        <v>97761.57000000001</v>
+        <v>146877.78</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40567.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>46171.44999999998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>56419.01000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>49116.20999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -712,11 +880,23 @@
       <c r="E15" t="n">
         <v>218850.03</v>
       </c>
+      <c r="F15" t="n">
+        <v>64094.51000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>68397.66999999998</v>
+      </c>
+      <c r="H15" t="n">
+        <v>79909.90000000002</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71972.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -731,49 +911,85 @@
       <c r="E16" t="n">
         <v>45135.7982</v>
       </c>
+      <c r="F16" t="n">
+        <v>35905.6762</v>
+      </c>
+      <c r="G16" t="n">
+        <v>171455.7905</v>
+      </c>
+      <c r="H16" t="n">
+        <v>217811.0453</v>
+      </c>
+      <c r="I16" t="n">
+        <v>45135.7982</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145571.2497</v>
+        <v>93495.67999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>311885.2639</v>
+        <v>251954.65</v>
       </c>
       <c r="D17" t="n">
-        <v>378314.6857</v>
+        <v>307752.81</v>
       </c>
       <c r="E17" t="n">
-        <v>172770.722</v>
+        <v>111749.12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>57590.00379999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>80498.85949999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>89941.7647</v>
+      </c>
+      <c r="I17" t="n">
+        <v>66613.32180000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93495.67999999999</v>
+        <v>145571.2497</v>
       </c>
       <c r="C18" t="n">
-        <v>251954.65</v>
+        <v>311885.2639</v>
       </c>
       <c r="D18" t="n">
-        <v>307752.81</v>
+        <v>378314.6857</v>
       </c>
       <c r="E18" t="n">
-        <v>111749.12</v>
+        <v>172770.722</v>
+      </c>
+      <c r="F18" t="n">
+        <v>52075.56969999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>59930.61390000003</v>
+      </c>
+      <c r="H18" t="n">
+        <v>70561.87569999998</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61021.60200000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -788,11 +1004,23 @@
       <c r="E19" t="n">
         <v>257092.161</v>
       </c>
+      <c r="F19" t="n">
+        <v>72970.33100000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>83442.47629999998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>94972.70110000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>84321.43899999998</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -807,49 +1035,85 @@
       <c r="E20" t="n">
         <v>53136.99</v>
       </c>
+      <c r="F20" t="n">
+        <v>43239.77</v>
+      </c>
+      <c r="G20" t="n">
+        <v>214638.56</v>
+      </c>
+      <c r="H20" t="n">
+        <v>267457.89</v>
+      </c>
+      <c r="I20" t="n">
+        <v>53136.99</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>154800.66</v>
+        <v>105540.56</v>
       </c>
       <c r="C21" t="n">
-        <v>359100.75</v>
+        <v>301713.75</v>
       </c>
       <c r="D21" t="n">
-        <v>437199.18</v>
+        <v>369499.97</v>
       </c>
       <c r="E21" t="n">
-        <v>185579.04</v>
+        <v>126664.86</v>
+      </c>
+      <c r="F21" t="n">
+        <v>62300.79</v>
+      </c>
+      <c r="G21" t="n">
+        <v>87075.19</v>
+      </c>
+      <c r="H21" t="n">
+        <v>102042.08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>73527.87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105540.56</v>
+        <v>154800.66</v>
       </c>
       <c r="C22" t="n">
-        <v>301713.75</v>
+        <v>359100.75</v>
       </c>
       <c r="D22" t="n">
-        <v>369499.97</v>
+        <v>437199.18</v>
       </c>
       <c r="E22" t="n">
-        <v>126664.86</v>
+        <v>185579.04</v>
+      </c>
+      <c r="F22" t="n">
+        <v>49260.10000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>57387</v>
+      </c>
+      <c r="H22" t="n">
+        <v>67699.21000000002</v>
+      </c>
+      <c r="I22" t="n">
+        <v>58914.18000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -864,11 +1128,23 @@
       <c r="E23" t="n">
         <v>262330.33</v>
       </c>
+      <c r="F23" t="n">
+        <v>67052.51999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>76312.73999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>90397.88999999996</v>
+      </c>
+      <c r="I23" t="n">
+        <v>76751.29000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -883,49 +1159,85 @@
       <c r="E24" t="n">
         <v>48923.5</v>
       </c>
+      <c r="F24" t="n">
+        <v>39518.93</v>
+      </c>
+      <c r="G24" t="n">
+        <v>234945.35</v>
+      </c>
+      <c r="H24" t="n">
+        <v>289862.42</v>
+      </c>
+      <c r="I24" t="n">
+        <v>48923.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>160418.58</v>
+        <v>99166.89</v>
       </c>
       <c r="C25" t="n">
-        <v>384267.38</v>
+        <v>311682.82</v>
       </c>
       <c r="D25" t="n">
-        <v>469106</v>
+        <v>383582.79</v>
       </c>
       <c r="E25" t="n">
-        <v>191875.95</v>
+        <v>119734.76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>59647.96</v>
+      </c>
+      <c r="G25" t="n">
+        <v>76737.47</v>
+      </c>
+      <c r="H25" t="n">
+        <v>93720.37</v>
+      </c>
+      <c r="I25" t="n">
+        <v>70811.25999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99166.89</v>
+        <v>160418.58</v>
       </c>
       <c r="C26" t="n">
-        <v>311682.82</v>
+        <v>384267.38</v>
       </c>
       <c r="D26" t="n">
-        <v>383582.79</v>
+        <v>469106</v>
       </c>
       <c r="E26" t="n">
-        <v>119734.76</v>
+        <v>191875.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>61251.68999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>72584.56</v>
+      </c>
+      <c r="H26" t="n">
+        <v>85523.21000000002</v>
+      </c>
+      <c r="I26" t="n">
+        <v>72141.19000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -940,11 +1252,23 @@
       <c r="E27" t="n">
         <v>294430.2</v>
       </c>
+      <c r="F27" t="n">
+        <v>88344.61000000002</v>
+      </c>
+      <c r="G27" t="n">
+        <v>103633.77</v>
+      </c>
+      <c r="H27" t="n">
+        <v>118172.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>102554.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -959,49 +1283,85 @@
       <c r="E28" t="n">
         <v>65586.25999999999</v>
       </c>
+      <c r="F28" t="n">
+        <v>51878.46</v>
+      </c>
+      <c r="G28" t="n">
+        <v>271191.02</v>
+      </c>
+      <c r="H28" t="n">
+        <v>333753.87</v>
+      </c>
+      <c r="I28" t="n">
+        <v>65586.25999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>207438.65</v>
+        <v>129804.97</v>
       </c>
       <c r="C29" t="n">
-        <v>463326.03</v>
+        <v>374472.64</v>
       </c>
       <c r="D29" t="n">
-        <v>559414.9</v>
+        <v>454652.66</v>
       </c>
       <c r="E29" t="n">
-        <v>247751.41</v>
+        <v>156940.17</v>
+      </c>
+      <c r="F29" t="n">
+        <v>77926.51000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>103281.62</v>
+      </c>
+      <c r="H29" t="n">
+        <v>120898.79</v>
+      </c>
+      <c r="I29" t="n">
+        <v>91353.91000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>129804.97</v>
+        <v>207438.65</v>
       </c>
       <c r="C30" t="n">
-        <v>374472.64</v>
+        <v>463326.03</v>
       </c>
       <c r="D30" t="n">
-        <v>454652.66</v>
+        <v>559414.9</v>
       </c>
       <c r="E30" t="n">
-        <v>156940.17</v>
+        <v>247751.41</v>
+      </c>
+      <c r="F30" t="n">
+        <v>77633.67999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>88853.39000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>104762.24</v>
+      </c>
+      <c r="I30" t="n">
+        <v>90811.23999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1016,11 +1376,23 @@
       <c r="E31" t="n">
         <v>374267.81</v>
       </c>
+      <c r="F31" t="n">
+        <v>109031.61</v>
+      </c>
+      <c r="G31" t="n">
+        <v>121673.78</v>
+      </c>
+      <c r="H31" t="n">
+        <v>141157.5399999999</v>
+      </c>
+      <c r="I31" t="n">
+        <v>126516.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1035,49 +1407,85 @@
       <c r="E32" t="n">
         <v>77451.74000000001</v>
       </c>
+      <c r="F32" t="n">
+        <v>63056.46</v>
+      </c>
+      <c r="G32" t="n">
+        <v>348858.78</v>
+      </c>
+      <c r="H32" t="n">
+        <v>427697.69</v>
+      </c>
+      <c r="I32" t="n">
+        <v>77451.74000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>245193.2</v>
+        <v>155635.66</v>
       </c>
       <c r="C33" t="n">
-        <v>572364.75</v>
+        <v>470879.69</v>
       </c>
       <c r="D33" t="n">
-        <v>693145.38</v>
+        <v>570555.5600000001</v>
       </c>
       <c r="E33" t="n">
-        <v>292793.15</v>
+        <v>187396.29</v>
+      </c>
+      <c r="F33" t="n">
+        <v>92579.20000000001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>122020.91</v>
+      </c>
+      <c r="H33" t="n">
+        <v>142857.8700000001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>109944.55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155635.66</v>
+        <v>245193.2</v>
       </c>
       <c r="C34" t="n">
-        <v>470879.69</v>
+        <v>572364.75</v>
       </c>
       <c r="D34" t="n">
-        <v>570555.5600000001</v>
+        <v>693145.38</v>
       </c>
       <c r="E34" t="n">
-        <v>187396.29</v>
+        <v>292793.15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>89557.54000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>101485.06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>122589.8199999999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>105396.86</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1092,11 +1500,23 @@
       <c r="E35" t="n">
         <v>427065.72</v>
       </c>
+      <c r="F35" t="n">
+        <v>114797.22</v>
+      </c>
+      <c r="G35" t="n">
+        <v>132163.8100000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>153098.23</v>
+      </c>
+      <c r="I35" t="n">
+        <v>134272.5699999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1111,49 +1531,85 @@
       <c r="E36" t="n">
         <v>79808.44</v>
       </c>
+      <c r="F36" t="n">
+        <v>62385.22</v>
+      </c>
+      <c r="G36" t="n">
+        <v>415574.23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>520224.35</v>
+      </c>
+      <c r="I36" t="n">
+        <v>79808.44</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245879.21</v>
+        <v>154171.14</v>
       </c>
       <c r="C37" t="n">
-        <v>661152.73</v>
+        <v>550256.79</v>
       </c>
       <c r="D37" t="n">
-        <v>814013.55</v>
+        <v>681796.53</v>
       </c>
       <c r="E37" t="n">
-        <v>300668.96</v>
+        <v>192960.75</v>
+      </c>
+      <c r="F37" t="n">
+        <v>91785.92000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>134682.5600000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>161572.1800000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>113152.31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154171.14</v>
+        <v>245879.21</v>
       </c>
       <c r="C38" t="n">
-        <v>550256.79</v>
+        <v>661152.73</v>
       </c>
       <c r="D38" t="n">
-        <v>681796.53</v>
+        <v>814013.55</v>
       </c>
       <c r="E38" t="n">
-        <v>192960.75</v>
+        <v>300668.96</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91708.06999999998</v>
+      </c>
+      <c r="G38" t="n">
+        <v>110895.9399999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>132217.02</v>
+      </c>
+      <c r="I38" t="n">
+        <v>107708.21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1168,11 +1624,23 @@
       <c r="E39" t="n">
         <v>445881.81</v>
       </c>
+      <c r="F39" t="n">
+        <v>120903.01</v>
+      </c>
+      <c r="G39" t="n">
+        <v>134539.0600000001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>167476.22</v>
+      </c>
+      <c r="I39" t="n">
+        <v>145212.85</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1187,49 +1655,85 @@
       <c r="E40" t="n">
         <v>88256.41</v>
       </c>
+      <c r="F40" t="n">
+        <v>67858.24000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>483011.75</v>
+      </c>
+      <c r="H40" t="n">
+        <v>605068.96</v>
+      </c>
+      <c r="I40" t="n">
+        <v>88256.41</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>283137.79</v>
+        <v>176327.96</v>
       </c>
       <c r="C41" t="n">
-        <v>749067.8</v>
+        <v>629682.01</v>
       </c>
       <c r="D41" t="n">
-        <v>932215.55</v>
+        <v>785506.49</v>
       </c>
       <c r="E41" t="n">
-        <v>349053.53</v>
+        <v>221307.33</v>
+      </c>
+      <c r="F41" t="n">
+        <v>108469.72</v>
+      </c>
+      <c r="G41" t="n">
+        <v>146670.26</v>
+      </c>
+      <c r="H41" t="n">
+        <v>180437.53</v>
+      </c>
+      <c r="I41" t="n">
+        <v>133050.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176327.96</v>
+        <v>283137.79</v>
       </c>
       <c r="C42" t="n">
-        <v>629682.01</v>
+        <v>749067.8</v>
       </c>
       <c r="D42" t="n">
-        <v>785506.49</v>
+        <v>932215.55</v>
       </c>
       <c r="E42" t="n">
-        <v>221307.33</v>
+        <v>349053.53</v>
+      </c>
+      <c r="F42" t="n">
+        <v>106809.83</v>
+      </c>
+      <c r="G42" t="n">
+        <v>119385.79</v>
+      </c>
+      <c r="H42" t="n">
+        <v>146709.0600000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>127746.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1244,11 +1748,23 @@
       <c r="E43" t="n">
         <v>514741</v>
       </c>
+      <c r="F43" t="n">
+        <v>133194.15</v>
+      </c>
+      <c r="G43" t="n">
+        <v>153587.9299999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>197752.1399999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>165687.47</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1263,49 +1779,85 @@
       <c r="E44" t="n">
         <v>102571.95</v>
       </c>
+      <c r="F44" t="n">
+        <v>78975.59</v>
+      </c>
+      <c r="G44" t="n">
+        <v>557192.91</v>
+      </c>
+      <c r="H44" t="n">
+        <v>698854.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>102571.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>299036.78</v>
+        <v>195242.8</v>
       </c>
       <c r="C45" t="n">
-        <v>845584.59</v>
+        <v>720390.59</v>
       </c>
       <c r="D45" t="n">
-        <v>1046423.78</v>
+        <v>891350.92</v>
       </c>
       <c r="E45" t="n">
-        <v>373773.19</v>
+        <v>245629.94</v>
+      </c>
+      <c r="F45" t="n">
+        <v>116267.21</v>
+      </c>
+      <c r="G45" t="n">
+        <v>163197.6799999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>192496.62</v>
+      </c>
+      <c r="I45" t="n">
+        <v>143057.99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>195242.8</v>
+        <v>299036.78</v>
       </c>
       <c r="C46" t="n">
-        <v>720390.59</v>
+        <v>845584.59</v>
       </c>
       <c r="D46" t="n">
-        <v>891350.92</v>
+        <v>1046423.78</v>
       </c>
       <c r="E46" t="n">
-        <v>245629.94</v>
+        <v>373773.19</v>
+      </c>
+      <c r="F46" t="n">
+        <v>103793.98</v>
+      </c>
+      <c r="G46" t="n">
+        <v>125194</v>
+      </c>
+      <c r="H46" t="n">
+        <v>155072.86</v>
+      </c>
+      <c r="I46" t="n">
+        <v>128143.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1320,11 +1872,23 @@
       <c r="E47" t="n">
         <v>528863.34</v>
       </c>
+      <c r="F47" t="n">
+        <v>126112.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>160099.05</v>
+      </c>
+      <c r="H47" t="n">
+        <v>203824.76</v>
+      </c>
+      <c r="I47" t="n">
+        <v>155090.15</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1337,45 +1901,75 @@
       <c r="E48" t="n">
         <v>91161.81</v>
       </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>563502.2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>751540.83</v>
+      </c>
+      <c r="I48" t="n">
+        <v>91161.81</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>814530.63</v>
+        <v>711319.21</v>
       </c>
       <c r="D49" t="n">
-        <v>1060699.57</v>
+        <v>919123.89</v>
       </c>
       <c r="E49" t="n">
-        <v>311412.55</v>
+        <v>203198.86</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>147817.01</v>
+      </c>
+      <c r="H49" t="n">
+        <v>167583.0600000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>112037.05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>711319.21</v>
+        <v>814530.63</v>
       </c>
       <c r="D50" t="n">
-        <v>919123.89</v>
+        <v>1060699.57</v>
       </c>
       <c r="E50" t="n">
-        <v>203198.86</v>
+        <v>311412.55</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>103211.42</v>
+      </c>
+      <c r="H50" t="n">
+        <v>141575.6800000001</v>
+      </c>
+      <c r="I50" t="n">
+        <v>108213.69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1388,11 +1982,21 @@
       <c r="E51" t="n">
         <v>468410.85</v>
       </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>154443.34</v>
+      </c>
+      <c r="H51" t="n">
+        <v>181870.3399999999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>156998.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1405,45 +2009,75 @@
       <c r="E52" t="n">
         <v>92022.25999999999</v>
       </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>539719.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>753521.8199999999</v>
+      </c>
+      <c r="I52" t="n">
+        <v>92022.25999999999</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>812299.05</v>
+        <v>707503.0600000001</v>
       </c>
       <c r="D53" t="n">
-        <v>1078036.84</v>
+        <v>937278.77</v>
       </c>
       <c r="E53" t="n">
-        <v>323328.359999999</v>
+        <v>215490.38</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>167783.5600000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>183756.9500000001</v>
+      </c>
+      <c r="I53" t="n">
+        <v>123468.12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>707503.0600000001</v>
+        <v>812299.05</v>
       </c>
       <c r="D54" t="n">
-        <v>937278.77</v>
+        <v>1078036.84</v>
       </c>
       <c r="E54" t="n">
-        <v>215490.38</v>
+        <v>323328.359999999</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>104795.99</v>
+      </c>
+      <c r="H54" t="n">
+        <v>140758.0700000001</v>
+      </c>
+      <c r="I54" t="n">
+        <v>107837.979999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1456,11 +2090,21 @@
       <c r="E55" t="n">
         <v>479558.37</v>
       </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>149431.6599999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>186183.0799999998</v>
+      </c>
+      <c r="I55" t="n">
+        <v>156230.010000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1473,41 +2117,67 @@
       <c r="E56" t="n">
         <v>98009.5</v>
       </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>65575.39</v>
+      </c>
+      <c r="H56" t="n">
+        <v>772242.76</v>
+      </c>
+      <c r="I56" t="n">
+        <v>98009.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>1128328.16</v>
+        <v>969739.63</v>
       </c>
       <c r="E57" t="n">
-        <v>351436.77</v>
+        <v>229775.22</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>197496.87</v>
+      </c>
+      <c r="I57" t="n">
+        <v>131765.72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>969739.63</v>
+        <v>1128328.16</v>
       </c>
       <c r="E58" t="n">
-        <v>229775.22</v>
+        <v>351436.77</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>158588.5299999999</v>
+      </c>
+      <c r="I58" t="n">
+        <v>121661.55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1518,11 +2188,19 @@
       <c r="E59" t="n">
         <v>521653.92</v>
       </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>188867.2000000002</v>
+      </c>
+      <c r="I59" t="n">
+        <v>170217.15</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1533,41 +2211,65 @@
       <c r="E60" t="n">
         <v>105233</v>
       </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>819752.72</v>
+      </c>
+      <c r="I60" t="n">
+        <v>105233</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>1192313.54</v>
+        <v>1046613.21</v>
       </c>
       <c r="E61" t="n">
-        <v>381765.16</v>
+        <v>251853.72</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>226860.49</v>
+      </c>
+      <c r="I61" t="n">
+        <v>146620.72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>1046613.21</v>
+        <v>1192313.54</v>
       </c>
       <c r="E62" t="n">
-        <v>251853.72</v>
+        <v>381765.16</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>145700.3300000001</v>
+      </c>
+      <c r="I62" t="n">
+        <v>129911.44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -1578,11 +2280,19 @@
       <c r="E63" t="n">
         <v>558778.2</v>
       </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>216606.8699999999</v>
+      </c>
+      <c r="I63" t="n">
+        <v>177013.04</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1593,41 +2303,65 @@
       <c r="E64" t="n">
         <v>108754.57</v>
       </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>891401.34</v>
+      </c>
+      <c r="I64" t="n">
+        <v>108754.57</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>1234875.09</v>
+        <v>1074958.75</v>
       </c>
       <c r="E65" t="n">
-        <v>353244.6</v>
+        <v>235188.98</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>183557.41</v>
+      </c>
+      <c r="I65" t="n">
+        <v>126434.41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>1074958.75</v>
+        <v>1234875.09</v>
       </c>
       <c r="E66" t="n">
-        <v>235188.98</v>
+        <v>353244.6</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>159916.3400000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>118055.62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1638,11 +2372,19 @@
       <c r="E67" t="n">
         <v>515089.07</v>
       </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>206769.75</v>
+      </c>
+      <c r="I67" t="n">
+        <v>161844.47</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1653,41 +2395,65 @@
       <c r="E68" t="n">
         <v>82786.14</v>
       </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>893586.26</v>
+      </c>
+      <c r="I68" t="n">
+        <v>82786.14</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>1245358.95</v>
+        <v>1120565.45</v>
       </c>
       <c r="E69" t="n">
-        <v>341816.01</v>
+        <v>222615.77</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>226979.1899999999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>139829.63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>1120565.45</v>
+        <v>1245358.95</v>
       </c>
       <c r="E70" t="n">
-        <v>222615.77</v>
+        <v>341816.01</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>124793.5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>119200.24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1698,11 +2464,19 @@
       <c r="E71" t="n">
         <v>512409.34</v>
       </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>249384.4100000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>170593.33</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -1713,41 +2487,65 @@
       <c r="E72" t="n">
         <v>101009.4</v>
       </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>973881.9</v>
+      </c>
+      <c r="I72" t="n">
+        <v>101009.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>1350005.42</v>
+        <v>1193094.65</v>
       </c>
       <c r="E73" t="n">
-        <v>334661.66</v>
+        <v>225333.39</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>219212.7499999999</v>
+      </c>
+      <c r="I73" t="n">
+        <v>124323.99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>1193094.65</v>
+        <v>1350005.42</v>
       </c>
       <c r="E74" t="n">
-        <v>225333.39</v>
+        <v>334661.66</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>156910.77</v>
+      </c>
+      <c r="I74" t="n">
+        <v>109328.27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1758,6 +2556,14 @@
       <c r="E75" t="n">
         <v>492097.34</v>
       </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>225489.8400000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>157435.6800000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_quarter/zb/建筑业/建筑业企业房屋建筑施工面积.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业房屋建筑施工面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,26 +454,6 @@
           <t>新开工面积_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>实行投标承包新开工面积</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>实行投标承包面积</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>房屋建筑施工面积</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>新开工面积</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,14 +469,6 @@
       <c r="E2" t="n">
         <v>61193.27</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>155966.93</v>
-      </c>
-      <c r="I2" t="n">
-        <v>61193.27</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -512,14 +484,6 @@
       <c r="E3" t="n">
         <v>149203.81</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>107500.51</v>
-      </c>
-      <c r="I3" t="n">
-        <v>88010.54000000001</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,79 +503,43 @@
       <c r="E4" t="n">
         <v>30494.27</v>
       </c>
-      <c r="F4" t="n">
-        <v>24447.67</v>
-      </c>
-      <c r="G4" t="n">
-        <v>96405</v>
-      </c>
-      <c r="H4" t="n">
-        <v>125314.97</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30494.27</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57750.44</v>
+        <v>85594.59</v>
       </c>
       <c r="C5" t="n">
-        <v>144554.5</v>
+        <v>179113.51</v>
       </c>
       <c r="D5" t="n">
-        <v>184777.5</v>
+        <v>227176.32</v>
       </c>
       <c r="E5" t="n">
-        <v>70888.25999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33302.77</v>
-      </c>
-      <c r="G5" t="n">
-        <v>48149.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59462.53</v>
-      </c>
-      <c r="I5" t="n">
-        <v>40393.98999999999</v>
+        <v>104547.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85594.59</v>
+        <v>57750.44</v>
       </c>
       <c r="C6" t="n">
-        <v>179113.51</v>
+        <v>144554.5</v>
       </c>
       <c r="D6" t="n">
-        <v>227176.32</v>
+        <v>184777.5</v>
       </c>
       <c r="E6" t="n">
-        <v>104547.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27844.14999999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>34559.01000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>42398.82000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33658.84000000001</v>
+        <v>70888.25999999999</v>
       </c>
     </row>
     <row r="7">
@@ -632,18 +560,6 @@
       <c r="E7" t="n">
         <v>166026.16</v>
       </c>
-      <c r="F7" t="n">
-        <v>48774.48000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>55123.13999999998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>64762.20000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>61479.06</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -663,79 +579,43 @@
       <c r="E8" t="n">
         <v>34655</v>
       </c>
-      <c r="F8" t="n">
-        <v>27749.76</v>
-      </c>
-      <c r="G8" t="n">
-        <v>117226.86</v>
-      </c>
-      <c r="H8" t="n">
-        <v>149960.43</v>
-      </c>
-      <c r="I8" t="n">
-        <v>34655</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68375.23</v>
+        <v>104177.81</v>
       </c>
       <c r="C9" t="n">
-        <v>177099.97</v>
+        <v>222529.33</v>
       </c>
       <c r="D9" t="n">
-        <v>219912.29</v>
+        <v>275469.47</v>
       </c>
       <c r="E9" t="n">
-        <v>82006.53999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>40625.47</v>
-      </c>
-      <c r="G9" t="n">
-        <v>59873.11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>69951.86000000002</v>
-      </c>
-      <c r="I9" t="n">
-        <v>47351.53999999999</v>
+        <v>124710.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104177.81</v>
+        <v>68375.23</v>
       </c>
       <c r="C10" t="n">
-        <v>222529.33</v>
+        <v>177099.97</v>
       </c>
       <c r="D10" t="n">
-        <v>275469.47</v>
+        <v>219912.29</v>
       </c>
       <c r="E10" t="n">
-        <v>124710.86</v>
-      </c>
-      <c r="F10" t="n">
-        <v>35802.58</v>
-      </c>
-      <c r="G10" t="n">
-        <v>45429.35999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>55557.17999999996</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42704.32000000001</v>
+        <v>82006.53999999999</v>
       </c>
     </row>
     <row r="11">
@@ -756,18 +636,6 @@
       <c r="E11" t="n">
         <v>189405.55</v>
       </c>
-      <c r="F11" t="n">
-        <v>51654.44</v>
-      </c>
-      <c r="G11" t="n">
-        <v>58573.20999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>73499.64000000001</v>
-      </c>
-      <c r="I11" t="n">
-        <v>64694.68999999999</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -787,79 +655,43 @@
       <c r="E12" t="n">
         <v>44199.68</v>
       </c>
-      <c r="F12" t="n">
-        <v>34896.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>144150.27</v>
-      </c>
-      <c r="H12" t="n">
-        <v>179333.68</v>
-      </c>
-      <c r="I12" t="n">
-        <v>44199.68</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81341.14</v>
+        <v>121908.94</v>
       </c>
       <c r="C13" t="n">
-        <v>213167.6</v>
+        <v>259339.05</v>
       </c>
       <c r="D13" t="n">
-        <v>263276.86</v>
+        <v>319695.87</v>
       </c>
       <c r="E13" t="n">
-        <v>97761.57000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>46444.44</v>
-      </c>
-      <c r="G13" t="n">
-        <v>69017.33000000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>83943.17999999999</v>
-      </c>
-      <c r="I13" t="n">
-        <v>53561.89000000001</v>
+        <v>146877.78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121908.94</v>
+        <v>81341.14</v>
       </c>
       <c r="C14" t="n">
-        <v>259339.05</v>
+        <v>213167.6</v>
       </c>
       <c r="D14" t="n">
-        <v>319695.87</v>
+        <v>263276.86</v>
       </c>
       <c r="E14" t="n">
-        <v>146877.78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>40567.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>46171.44999999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>56419.01000000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>49116.20999999999</v>
+        <v>97761.57000000001</v>
       </c>
     </row>
     <row r="15">
@@ -880,18 +712,6 @@
       <c r="E15" t="n">
         <v>218850.03</v>
       </c>
-      <c r="F15" t="n">
-        <v>64094.51000000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>68397.66999999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>79909.90000000002</v>
-      </c>
-      <c r="I15" t="n">
-        <v>71972.25</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -911,79 +731,43 @@
       <c r="E16" t="n">
         <v>45135.7982</v>
       </c>
-      <c r="F16" t="n">
-        <v>35905.6762</v>
-      </c>
-      <c r="G16" t="n">
-        <v>171455.7905</v>
-      </c>
-      <c r="H16" t="n">
-        <v>217811.0453</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45135.7982</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93495.67999999999</v>
+        <v>145571.2497</v>
       </c>
       <c r="C17" t="n">
-        <v>251954.65</v>
+        <v>311885.2639</v>
       </c>
       <c r="D17" t="n">
-        <v>307752.81</v>
+        <v>378314.6857</v>
       </c>
       <c r="E17" t="n">
-        <v>111749.12</v>
-      </c>
-      <c r="F17" t="n">
-        <v>57590.00379999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>80498.85949999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>89941.7647</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66613.32180000001</v>
+        <v>172770.722</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>145571.2497</v>
+        <v>93495.67999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>311885.2639</v>
+        <v>251954.65</v>
       </c>
       <c r="D18" t="n">
-        <v>378314.6857</v>
+        <v>307752.81</v>
       </c>
       <c r="E18" t="n">
-        <v>172770.722</v>
-      </c>
-      <c r="F18" t="n">
-        <v>52075.56969999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>59930.61390000003</v>
-      </c>
-      <c r="H18" t="n">
-        <v>70561.87569999998</v>
-      </c>
-      <c r="I18" t="n">
-        <v>61021.60200000001</v>
+        <v>111749.12</v>
       </c>
     </row>
     <row r="19">
@@ -1004,18 +788,6 @@
       <c r="E19" t="n">
         <v>257092.161</v>
       </c>
-      <c r="F19" t="n">
-        <v>72970.33100000001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>83442.47629999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>94972.70110000001</v>
-      </c>
-      <c r="I19" t="n">
-        <v>84321.43899999998</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1035,79 +807,43 @@
       <c r="E20" t="n">
         <v>53136.99</v>
       </c>
-      <c r="F20" t="n">
-        <v>43239.77</v>
-      </c>
-      <c r="G20" t="n">
-        <v>214638.56</v>
-      </c>
-      <c r="H20" t="n">
-        <v>267457.89</v>
-      </c>
-      <c r="I20" t="n">
-        <v>53136.99</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105540.56</v>
+        <v>154800.66</v>
       </c>
       <c r="C21" t="n">
-        <v>301713.75</v>
+        <v>359100.75</v>
       </c>
       <c r="D21" t="n">
-        <v>369499.97</v>
+        <v>437199.18</v>
       </c>
       <c r="E21" t="n">
-        <v>126664.86</v>
-      </c>
-      <c r="F21" t="n">
-        <v>62300.79</v>
-      </c>
-      <c r="G21" t="n">
-        <v>87075.19</v>
-      </c>
-      <c r="H21" t="n">
-        <v>102042.08</v>
-      </c>
-      <c r="I21" t="n">
-        <v>73527.87</v>
+        <v>185579.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154800.66</v>
+        <v>105540.56</v>
       </c>
       <c r="C22" t="n">
-        <v>359100.75</v>
+        <v>301713.75</v>
       </c>
       <c r="D22" t="n">
-        <v>437199.18</v>
+        <v>369499.97</v>
       </c>
       <c r="E22" t="n">
-        <v>185579.04</v>
-      </c>
-      <c r="F22" t="n">
-        <v>49260.10000000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>57387</v>
-      </c>
-      <c r="H22" t="n">
-        <v>67699.21000000002</v>
-      </c>
-      <c r="I22" t="n">
-        <v>58914.18000000001</v>
+        <v>126664.86</v>
       </c>
     </row>
     <row r="23">
@@ -1128,18 +864,6 @@
       <c r="E23" t="n">
         <v>262330.33</v>
       </c>
-      <c r="F23" t="n">
-        <v>67052.51999999999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>76312.73999999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>90397.88999999996</v>
-      </c>
-      <c r="I23" t="n">
-        <v>76751.29000000001</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1159,79 +883,43 @@
       <c r="E24" t="n">
         <v>48923.5</v>
       </c>
-      <c r="F24" t="n">
-        <v>39518.93</v>
-      </c>
-      <c r="G24" t="n">
-        <v>234945.35</v>
-      </c>
-      <c r="H24" t="n">
-        <v>289862.42</v>
-      </c>
-      <c r="I24" t="n">
-        <v>48923.5</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99166.89</v>
+        <v>160418.58</v>
       </c>
       <c r="C25" t="n">
-        <v>311682.82</v>
+        <v>384267.38</v>
       </c>
       <c r="D25" t="n">
-        <v>383582.79</v>
+        <v>469106</v>
       </c>
       <c r="E25" t="n">
-        <v>119734.76</v>
-      </c>
-      <c r="F25" t="n">
-        <v>59647.96</v>
-      </c>
-      <c r="G25" t="n">
-        <v>76737.47</v>
-      </c>
-      <c r="H25" t="n">
-        <v>93720.37</v>
-      </c>
-      <c r="I25" t="n">
-        <v>70811.25999999999</v>
+        <v>191875.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160418.58</v>
+        <v>99166.89</v>
       </c>
       <c r="C26" t="n">
-        <v>384267.38</v>
+        <v>311682.82</v>
       </c>
       <c r="D26" t="n">
-        <v>469106</v>
+        <v>383582.79</v>
       </c>
       <c r="E26" t="n">
-        <v>191875.95</v>
-      </c>
-      <c r="F26" t="n">
-        <v>61251.68999999999</v>
-      </c>
-      <c r="G26" t="n">
-        <v>72584.56</v>
-      </c>
-      <c r="H26" t="n">
-        <v>85523.21000000002</v>
-      </c>
-      <c r="I26" t="n">
-        <v>72141.19000000002</v>
+        <v>119734.76</v>
       </c>
     </row>
     <row r="27">
@@ -1252,18 +940,6 @@
       <c r="E27" t="n">
         <v>294430.2</v>
       </c>
-      <c r="F27" t="n">
-        <v>88344.61000000002</v>
-      </c>
-      <c r="G27" t="n">
-        <v>103633.77</v>
-      </c>
-      <c r="H27" t="n">
-        <v>118172.8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102554.25</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1283,79 +959,43 @@
       <c r="E28" t="n">
         <v>65586.25999999999</v>
       </c>
-      <c r="F28" t="n">
-        <v>51878.46</v>
-      </c>
-      <c r="G28" t="n">
-        <v>271191.02</v>
-      </c>
-      <c r="H28" t="n">
-        <v>333753.87</v>
-      </c>
-      <c r="I28" t="n">
-        <v>65586.25999999999</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>129804.97</v>
+        <v>207438.65</v>
       </c>
       <c r="C29" t="n">
-        <v>374472.64</v>
+        <v>463326.03</v>
       </c>
       <c r="D29" t="n">
-        <v>454652.66</v>
+        <v>559414.9</v>
       </c>
       <c r="E29" t="n">
-        <v>156940.17</v>
-      </c>
-      <c r="F29" t="n">
-        <v>77926.51000000001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>103281.62</v>
-      </c>
-      <c r="H29" t="n">
-        <v>120898.79</v>
-      </c>
-      <c r="I29" t="n">
-        <v>91353.91000000002</v>
+        <v>247751.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207438.65</v>
+        <v>129804.97</v>
       </c>
       <c r="C30" t="n">
-        <v>463326.03</v>
+        <v>374472.64</v>
       </c>
       <c r="D30" t="n">
-        <v>559414.9</v>
+        <v>454652.66</v>
       </c>
       <c r="E30" t="n">
-        <v>247751.41</v>
-      </c>
-      <c r="F30" t="n">
-        <v>77633.67999999999</v>
-      </c>
-      <c r="G30" t="n">
-        <v>88853.39000000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>104762.24</v>
-      </c>
-      <c r="I30" t="n">
-        <v>90811.23999999999</v>
+        <v>156940.17</v>
       </c>
     </row>
     <row r="31">
@@ -1376,18 +1016,6 @@
       <c r="E31" t="n">
         <v>374267.81</v>
       </c>
-      <c r="F31" t="n">
-        <v>109031.61</v>
-      </c>
-      <c r="G31" t="n">
-        <v>121673.78</v>
-      </c>
-      <c r="H31" t="n">
-        <v>141157.5399999999</v>
-      </c>
-      <c r="I31" t="n">
-        <v>126516.4</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1407,79 +1035,43 @@
       <c r="E32" t="n">
         <v>77451.74000000001</v>
       </c>
-      <c r="F32" t="n">
-        <v>63056.46</v>
-      </c>
-      <c r="G32" t="n">
-        <v>348858.78</v>
-      </c>
-      <c r="H32" t="n">
-        <v>427697.69</v>
-      </c>
-      <c r="I32" t="n">
-        <v>77451.74000000001</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>155635.66</v>
+        <v>245193.2</v>
       </c>
       <c r="C33" t="n">
-        <v>470879.69</v>
+        <v>572364.75</v>
       </c>
       <c r="D33" t="n">
-        <v>570555.5600000001</v>
+        <v>693145.38</v>
       </c>
       <c r="E33" t="n">
-        <v>187396.29</v>
-      </c>
-      <c r="F33" t="n">
-        <v>92579.20000000001</v>
-      </c>
-      <c r="G33" t="n">
-        <v>122020.91</v>
-      </c>
-      <c r="H33" t="n">
-        <v>142857.8700000001</v>
-      </c>
-      <c r="I33" t="n">
-        <v>109944.55</v>
+        <v>292793.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245193.2</v>
+        <v>155635.66</v>
       </c>
       <c r="C34" t="n">
-        <v>572364.75</v>
+        <v>470879.69</v>
       </c>
       <c r="D34" t="n">
-        <v>693145.38</v>
+        <v>570555.5600000001</v>
       </c>
       <c r="E34" t="n">
-        <v>292793.15</v>
-      </c>
-      <c r="F34" t="n">
-        <v>89557.54000000001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>101485.06</v>
-      </c>
-      <c r="H34" t="n">
-        <v>122589.8199999999</v>
-      </c>
-      <c r="I34" t="n">
-        <v>105396.86</v>
+        <v>187396.29</v>
       </c>
     </row>
     <row r="35">
@@ -1500,18 +1092,6 @@
       <c r="E35" t="n">
         <v>427065.72</v>
       </c>
-      <c r="F35" t="n">
-        <v>114797.22</v>
-      </c>
-      <c r="G35" t="n">
-        <v>132163.8100000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>153098.23</v>
-      </c>
-      <c r="I35" t="n">
-        <v>134272.5699999999</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1531,79 +1111,43 @@
       <c r="E36" t="n">
         <v>79808.44</v>
       </c>
-      <c r="F36" t="n">
-        <v>62385.22</v>
-      </c>
-      <c r="G36" t="n">
-        <v>415574.23</v>
-      </c>
-      <c r="H36" t="n">
-        <v>520224.35</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79808.44</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154171.14</v>
+        <v>245879.21</v>
       </c>
       <c r="C37" t="n">
-        <v>550256.79</v>
+        <v>661152.73</v>
       </c>
       <c r="D37" t="n">
-        <v>681796.53</v>
+        <v>814013.55</v>
       </c>
       <c r="E37" t="n">
-        <v>192960.75</v>
-      </c>
-      <c r="F37" t="n">
-        <v>91785.92000000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>134682.5600000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>161572.1800000001</v>
-      </c>
-      <c r="I37" t="n">
-        <v>113152.31</v>
+        <v>300668.96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245879.21</v>
+        <v>154171.14</v>
       </c>
       <c r="C38" t="n">
-        <v>661152.73</v>
+        <v>550256.79</v>
       </c>
       <c r="D38" t="n">
-        <v>814013.55</v>
+        <v>681796.53</v>
       </c>
       <c r="E38" t="n">
-        <v>300668.96</v>
-      </c>
-      <c r="F38" t="n">
-        <v>91708.06999999998</v>
-      </c>
-      <c r="G38" t="n">
-        <v>110895.9399999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>132217.02</v>
-      </c>
-      <c r="I38" t="n">
-        <v>107708.21</v>
+        <v>192960.75</v>
       </c>
     </row>
     <row r="39">
@@ -1624,18 +1168,6 @@
       <c r="E39" t="n">
         <v>445881.81</v>
       </c>
-      <c r="F39" t="n">
-        <v>120903.01</v>
-      </c>
-      <c r="G39" t="n">
-        <v>134539.0600000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>167476.22</v>
-      </c>
-      <c r="I39" t="n">
-        <v>145212.85</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1655,79 +1187,43 @@
       <c r="E40" t="n">
         <v>88256.41</v>
       </c>
-      <c r="F40" t="n">
-        <v>67858.24000000001</v>
-      </c>
-      <c r="G40" t="n">
-        <v>483011.75</v>
-      </c>
-      <c r="H40" t="n">
-        <v>605068.96</v>
-      </c>
-      <c r="I40" t="n">
-        <v>88256.41</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>176327.96</v>
+        <v>283137.79</v>
       </c>
       <c r="C41" t="n">
-        <v>629682.01</v>
+        <v>749067.8</v>
       </c>
       <c r="D41" t="n">
-        <v>785506.49</v>
+        <v>932215.55</v>
       </c>
       <c r="E41" t="n">
-        <v>221307.33</v>
-      </c>
-      <c r="F41" t="n">
-        <v>108469.72</v>
-      </c>
-      <c r="G41" t="n">
-        <v>146670.26</v>
-      </c>
-      <c r="H41" t="n">
-        <v>180437.53</v>
-      </c>
-      <c r="I41" t="n">
-        <v>133050.92</v>
+        <v>349053.53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>283137.79</v>
+        <v>176327.96</v>
       </c>
       <c r="C42" t="n">
-        <v>749067.8</v>
+        <v>629682.01</v>
       </c>
       <c r="D42" t="n">
-        <v>932215.55</v>
+        <v>785506.49</v>
       </c>
       <c r="E42" t="n">
-        <v>349053.53</v>
-      </c>
-      <c r="F42" t="n">
-        <v>106809.83</v>
-      </c>
-      <c r="G42" t="n">
-        <v>119385.79</v>
-      </c>
-      <c r="H42" t="n">
-        <v>146709.0600000001</v>
-      </c>
-      <c r="I42" t="n">
-        <v>127746.2</v>
+        <v>221307.33</v>
       </c>
     </row>
     <row r="43">
@@ -1748,18 +1244,6 @@
       <c r="E43" t="n">
         <v>514741</v>
       </c>
-      <c r="F43" t="n">
-        <v>133194.15</v>
-      </c>
-      <c r="G43" t="n">
-        <v>153587.9299999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>197752.1399999999</v>
-      </c>
-      <c r="I43" t="n">
-        <v>165687.47</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1779,79 +1263,43 @@
       <c r="E44" t="n">
         <v>102571.95</v>
       </c>
-      <c r="F44" t="n">
-        <v>78975.59</v>
-      </c>
-      <c r="G44" t="n">
-        <v>557192.91</v>
-      </c>
-      <c r="H44" t="n">
-        <v>698854.3</v>
-      </c>
-      <c r="I44" t="n">
-        <v>102571.95</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>195242.8</v>
+        <v>299036.78</v>
       </c>
       <c r="C45" t="n">
-        <v>720390.59</v>
+        <v>845584.59</v>
       </c>
       <c r="D45" t="n">
-        <v>891350.92</v>
+        <v>1046423.78</v>
       </c>
       <c r="E45" t="n">
-        <v>245629.94</v>
-      </c>
-      <c r="F45" t="n">
-        <v>116267.21</v>
-      </c>
-      <c r="G45" t="n">
-        <v>163197.6799999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>192496.62</v>
-      </c>
-      <c r="I45" t="n">
-        <v>143057.99</v>
+        <v>373773.19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>299036.78</v>
+        <v>195242.8</v>
       </c>
       <c r="C46" t="n">
-        <v>845584.59</v>
+        <v>720390.59</v>
       </c>
       <c r="D46" t="n">
-        <v>1046423.78</v>
+        <v>891350.92</v>
       </c>
       <c r="E46" t="n">
-        <v>373773.19</v>
-      </c>
-      <c r="F46" t="n">
-        <v>103793.98</v>
-      </c>
-      <c r="G46" t="n">
-        <v>125194</v>
-      </c>
-      <c r="H46" t="n">
-        <v>155072.86</v>
-      </c>
-      <c r="I46" t="n">
-        <v>128143.25</v>
+        <v>245629.94</v>
       </c>
     </row>
     <row r="47">
@@ -1871,18 +1319,6 @@
       </c>
       <c r="E47" t="n">
         <v>528863.34</v>
-      </c>
-      <c r="F47" t="n">
-        <v>126112.6</v>
-      </c>
-      <c r="G47" t="n">
-        <v>160099.05</v>
-      </c>
-      <c r="H47" t="n">
-        <v>203824.76</v>
-      </c>
-      <c r="I47" t="n">
-        <v>155090.15</v>
       </c>
     </row>
     <row r="48">
@@ -1901,69 +1337,39 @@
       <c r="E48" t="n">
         <v>91161.81</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
-        <v>563502.2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>751540.83</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91161.81</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>711319.21</v>
+        <v>814530.63</v>
       </c>
       <c r="D49" t="n">
-        <v>919123.89</v>
+        <v>1060699.57</v>
       </c>
       <c r="E49" t="n">
-        <v>203198.86</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="n">
-        <v>147817.01</v>
-      </c>
-      <c r="H49" t="n">
-        <v>167583.0600000001</v>
-      </c>
-      <c r="I49" t="n">
-        <v>112037.05</v>
+        <v>311412.55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>814530.63</v>
+        <v>711319.21</v>
       </c>
       <c r="D50" t="n">
-        <v>1060699.57</v>
+        <v>919123.89</v>
       </c>
       <c r="E50" t="n">
-        <v>311412.55</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
-        <v>103211.42</v>
-      </c>
-      <c r="H50" t="n">
-        <v>141575.6800000001</v>
-      </c>
-      <c r="I50" t="n">
-        <v>108213.69</v>
+        <v>203198.86</v>
       </c>
     </row>
     <row r="51">
@@ -1982,16 +1388,6 @@
       <c r="E51" t="n">
         <v>468410.85</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
-        <v>154443.34</v>
-      </c>
-      <c r="H51" t="n">
-        <v>181870.3399999999</v>
-      </c>
-      <c r="I51" t="n">
-        <v>156998.3</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2009,69 +1405,39 @@
       <c r="E52" t="n">
         <v>92022.25999999999</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>539719.5</v>
-      </c>
-      <c r="H52" t="n">
-        <v>753521.8199999999</v>
-      </c>
-      <c r="I52" t="n">
-        <v>92022.25999999999</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>707503.0600000001</v>
+        <v>812299.05</v>
       </c>
       <c r="D53" t="n">
-        <v>937278.77</v>
+        <v>1078036.84</v>
       </c>
       <c r="E53" t="n">
-        <v>215490.38</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>167783.5600000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>183756.9500000001</v>
-      </c>
-      <c r="I53" t="n">
-        <v>123468.12</v>
+        <v>323328.359999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>812299.05</v>
+        <v>707503.0600000001</v>
       </c>
       <c r="D54" t="n">
-        <v>1078036.84</v>
+        <v>937278.77</v>
       </c>
       <c r="E54" t="n">
-        <v>323328.359999999</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
-        <v>104795.99</v>
-      </c>
-      <c r="H54" t="n">
-        <v>140758.0700000001</v>
-      </c>
-      <c r="I54" t="n">
-        <v>107837.979999999</v>
+        <v>215490.38</v>
       </c>
     </row>
     <row r="55">
@@ -2090,16 +1456,6 @@
       <c r="E55" t="n">
         <v>479558.37</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>149431.6599999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>186183.0799999998</v>
-      </c>
-      <c r="I55" t="n">
-        <v>156230.010000001</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2117,61 +1473,35 @@
       <c r="E56" t="n">
         <v>98009.5</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="n">
-        <v>65575.39</v>
-      </c>
-      <c r="H56" t="n">
-        <v>772242.76</v>
-      </c>
-      <c r="I56" t="n">
-        <v>98009.5</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>969739.63</v>
+        <v>1128328.16</v>
       </c>
       <c r="E57" t="n">
-        <v>229775.22</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
-        <v>197496.87</v>
-      </c>
-      <c r="I57" t="n">
-        <v>131765.72</v>
+        <v>351436.77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>1128328.16</v>
+        <v>969739.63</v>
       </c>
       <c r="E58" t="n">
-        <v>351436.77</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="n">
-        <v>158588.5299999999</v>
-      </c>
-      <c r="I58" t="n">
-        <v>121661.55</v>
+        <v>229775.22</v>
       </c>
     </row>
     <row r="59">
@@ -2188,14 +1518,6 @@
       <c r="E59" t="n">
         <v>521653.92</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="n">
-        <v>188867.2000000002</v>
-      </c>
-      <c r="I59" t="n">
-        <v>170217.15</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2211,59 +1533,35 @@
       <c r="E60" t="n">
         <v>105233</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="n">
-        <v>819752.72</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105233</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>1046613.21</v>
+        <v>1192313.54</v>
       </c>
       <c r="E61" t="n">
-        <v>251853.72</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="n">
-        <v>226860.49</v>
-      </c>
-      <c r="I61" t="n">
-        <v>146620.72</v>
+        <v>381765.16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>1192313.54</v>
+        <v>1046613.21</v>
       </c>
       <c r="E62" t="n">
-        <v>381765.16</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
-        <v>145700.3300000001</v>
-      </c>
-      <c r="I62" t="n">
-        <v>129911.44</v>
+        <v>251853.72</v>
       </c>
     </row>
     <row r="63">
@@ -2280,14 +1578,6 @@
       <c r="E63" t="n">
         <v>558778.2</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
-        <v>216606.8699999999</v>
-      </c>
-      <c r="I63" t="n">
-        <v>177013.04</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2303,59 +1593,35 @@
       <c r="E64" t="n">
         <v>108754.57</v>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="n">
-        <v>891401.34</v>
-      </c>
-      <c r="I64" t="n">
-        <v>108754.57</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>1074958.75</v>
+        <v>1234875.09</v>
       </c>
       <c r="E65" t="n">
-        <v>235188.98</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
-        <v>183557.41</v>
-      </c>
-      <c r="I65" t="n">
-        <v>126434.41</v>
+        <v>353244.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>1234875.09</v>
+        <v>1074958.75</v>
       </c>
       <c r="E66" t="n">
-        <v>353244.6</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="n">
-        <v>159916.3400000001</v>
-      </c>
-      <c r="I66" t="n">
-        <v>118055.62</v>
+        <v>235188.98</v>
       </c>
     </row>
     <row r="67">
@@ -2372,14 +1638,6 @@
       <c r="E67" t="n">
         <v>515089.07</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="n">
-        <v>206769.75</v>
-      </c>
-      <c r="I67" t="n">
-        <v>161844.47</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2395,59 +1653,35 @@
       <c r="E68" t="n">
         <v>82786.14</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="n">
-        <v>893586.26</v>
-      </c>
-      <c r="I68" t="n">
-        <v>82786.14</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>1120565.45</v>
+        <v>1245358.95</v>
       </c>
       <c r="E69" t="n">
-        <v>222615.77</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="n">
-        <v>226979.1899999999</v>
-      </c>
-      <c r="I69" t="n">
-        <v>139829.63</v>
+        <v>341816.01</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>1245358.95</v>
+        <v>1120565.45</v>
       </c>
       <c r="E70" t="n">
-        <v>341816.01</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="n">
-        <v>124793.5</v>
-      </c>
-      <c r="I70" t="n">
-        <v>119200.24</v>
+        <v>222615.77</v>
       </c>
     </row>
     <row r="71">
@@ -2464,14 +1698,6 @@
       <c r="E71" t="n">
         <v>512409.34</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="n">
-        <v>249384.4100000001</v>
-      </c>
-      <c r="I71" t="n">
-        <v>170593.33</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2487,59 +1713,35 @@
       <c r="E72" t="n">
         <v>101009.4</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
-        <v>973881.9</v>
-      </c>
-      <c r="I72" t="n">
-        <v>101009.4</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>1193094.65</v>
+        <v>1350005.42</v>
       </c>
       <c r="E73" t="n">
-        <v>225333.39</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="n">
-        <v>219212.7499999999</v>
-      </c>
-      <c r="I73" t="n">
-        <v>124323.99</v>
+        <v>334661.66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>1350005.42</v>
+        <v>1193094.65</v>
       </c>
       <c r="E74" t="n">
-        <v>334661.66</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
-        <v>156910.77</v>
-      </c>
-      <c r="I74" t="n">
-        <v>109328.27</v>
+        <v>225333.39</v>
       </c>
     </row>
     <row r="75">
@@ -2551,18 +1753,10 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>1575495.26</v>
+        <v>1575463.78</v>
       </c>
       <c r="E75" t="n">
-        <v>492097.34</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="n">
-        <v>225489.8400000001</v>
-      </c>
-      <c r="I75" t="n">
-        <v>157435.6800000001</v>
+        <v>492107.07</v>
       </c>
     </row>
   </sheetData>
